--- a/Data/EC/NIT-8909244316.xlsx
+++ b/Data/EC/NIT-8909244316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E220286E-CDE5-44E9-8617-04DC4B990D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AB34DB-2B48-4CD5-8D15-773BA3BCF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FD19E718-C4A3-4F24-BB04-7DBB9701A222}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C78D6AA0-CB6E-42DC-B185-100ACA69F47B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,252 @@
     <t>CC</t>
   </si>
   <si>
+    <t>92548311</t>
+  </si>
+  <si>
+    <t>HERNAN DAVID MORA ARRIETA</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
     <t>45500061</t>
   </si>
   <si>
     <t>ERLINDA VALETA MORALES</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
@@ -80,13 +320,10 @@
     <t>YURANIS ESTEFANIA ORTIZ FLOREZ</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
+    <t>1128056362</t>
+  </si>
+  <si>
+    <t>MILTON JOSE ZAMBRANO VALDELAMAR</t>
   </si>
   <si>
     <t>45442523</t>
@@ -95,253 +332,16 @@
     <t>LIGIA DEL SOCORRO GARRIDO RANGEL</t>
   </si>
   <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1128056362</t>
-  </si>
-  <si>
-    <t>MILTON JOSE ZAMBRANO VALDELAMAR</t>
-  </si>
-  <si>
-    <t>92548311</t>
-  </si>
-  <si>
-    <t>HERNAN DAVID MORA ARRIETA</t>
-  </si>
-  <si>
-    <t>1707</t>
+    <t>1143366341</t>
+  </si>
+  <si>
+    <t>YURANIS RODRIGUEZ BELLO</t>
   </si>
   <si>
     <t>1100306978</t>
   </si>
   <si>
     <t>YENISFERR MEZA BELTRAN</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1143366341</t>
-  </si>
-  <si>
-    <t>YURANIS RODRIGUEZ BELLO</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -755,7 +755,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98999B82-D0AE-0B6F-D083-3D1FF1F55068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DD760A-8BBE-7C87-0A69-90E8C94286C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA39C73-4C1B-4178-B25F-FEEE337AF6CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5783C8B-5660-40B2-9CE7-C46631F0C585}">
   <dimension ref="B2:J326"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1284,10 +1284,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32000</v>
+        <v>4596</v>
       </c>
       <c r="G16" s="18">
-        <v>800000</v>
+        <v>689455</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1304,13 +1304,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>28996</v>
+        <v>26667</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>32000</v>
@@ -1350,13 +1350,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1373,13 +1373,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1390,13 +1390,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>32000</v>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>32000</v>
@@ -1442,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>32000</v>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>32000</v>
@@ -1505,13 +1505,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>32000</v>
@@ -1534,13 +1534,13 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1557,13 +1557,13 @@
         <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1574,13 +1574,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>32000</v>
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>32000</v>
@@ -1620,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>32000</v>
@@ -1643,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>32000</v>
@@ -1672,13 +1672,13 @@
         <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1695,13 +1695,13 @@
         <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1712,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>32000</v>
@@ -1735,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>32000</v>
@@ -1758,13 +1758,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>32000</v>
@@ -1787,13 +1787,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1810,13 +1810,13 @@
         <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>32000</v>
@@ -1850,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>32000</v>
@@ -1873,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>32000</v>
@@ -1902,13 +1902,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1919,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>32000</v>
@@ -1942,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>32000</v>
@@ -1965,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>32000</v>
@@ -1994,13 +1994,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
-        <v>12374</v>
+        <v>32000</v>
       </c>
       <c r="G48" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F49" s="18">
-        <v>4596</v>
+        <v>32000</v>
       </c>
       <c r="G49" s="18">
-        <v>689455</v>
+        <v>800000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2057,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F50" s="18">
         <v>32000</v>
@@ -2080,13 +2080,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F51" s="18">
         <v>32000</v>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F52" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G52" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2126,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>32000</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2155,13 +2155,13 @@
         <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2172,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G55" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2195,13 +2195,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F56" s="18">
         <v>32000</v>
@@ -2224,13 +2224,13 @@
         <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F57" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2241,13 +2241,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F58" s="18">
         <v>32000</v>
@@ -2264,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F59" s="18">
         <v>32000</v>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F60" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G60" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F61" s="18">
         <v>32000</v>
@@ -2339,13 +2339,13 @@
         <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2356,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F63" s="18">
         <v>32000</v>
@@ -2385,13 +2385,13 @@
         <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="F64" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="F65" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G65" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2425,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>32000</v>
@@ -2448,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F67" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G67" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2471,13 +2471,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F68" s="18">
         <v>32000</v>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
         <v>32000</v>
@@ -2523,13 +2523,13 @@
         <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F70" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2540,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F71" s="18">
         <v>32000</v>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F72" s="18">
-        <v>24591</v>
+        <v>32000</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F73" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G73" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2615,13 +2615,13 @@
         <v>13</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F74" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2632,13 +2632,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="F75" s="18">
         <v>32000</v>
@@ -2661,13 +2661,13 @@
         <v>13</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="F76" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2678,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F77" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G77" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2701,13 +2701,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F78" s="18">
         <v>32000</v>
@@ -2724,13 +2724,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F79" s="18">
         <v>32000</v>
@@ -2747,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="F80" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G80" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2770,13 +2770,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F81" s="18">
         <v>32000</v>
@@ -2799,13 +2799,13 @@
         <v>13</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F82" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G82" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2816,13 +2816,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F83" s="18">
         <v>32000</v>
@@ -2845,13 +2845,13 @@
         <v>13</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2862,13 +2862,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F85" s="18">
         <v>32000</v>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F86" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G86" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2908,13 +2908,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="F87" s="18">
         <v>32000</v>
@@ -2931,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F88" s="18">
         <v>32000</v>
@@ -2954,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="F89" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G89" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2983,13 +2983,13 @@
         <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="F90" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G90" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3000,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F91" s="18">
         <v>32000</v>
@@ -3023,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F92" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G92" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3052,13 +3052,13 @@
         <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F93" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3069,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F94" s="18">
         <v>32000</v>
@@ -3092,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F95" s="18">
         <v>32000</v>
@@ -3115,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F96" s="18">
-        <v>32000</v>
+        <v>26041</v>
       </c>
       <c r="G96" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3138,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F97" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3161,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="F98" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F99" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F100" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3230,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F101" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3253,16 +3253,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F102" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F103" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F104" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3322,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F105" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3345,16 +3345,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F106" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F107" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3391,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="F108" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G108" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3414,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3437,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D110" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E110" s="16" t="s">
-        <v>47</v>
-      </c>
       <c r="F110" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3460,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F111" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G111" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3483,13 +3483,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F112" s="18">
         <v>31249</v>
@@ -3506,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F113" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3529,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F114" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G114" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3552,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F115" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G115" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3575,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F116" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3598,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3621,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F118" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G118" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3644,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F119" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3667,13 +3667,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F120" s="18">
         <v>31249</v>
@@ -3690,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F121" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G121" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3713,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F122" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3736,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F123" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G123" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3759,13 +3759,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F124" s="18">
         <v>31249</v>
@@ -3782,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F125" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G125" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3805,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F126" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3828,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F127" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G127" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3851,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F128" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G128" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3874,13 +3874,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3897,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F130" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G130" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3920,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F131" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G131" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3943,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F132" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3966,13 +3966,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3989,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F134" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G134" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4012,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F135" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4035,10 +4035,10 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>54</v>
@@ -4058,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4081,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="D138" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E138" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F138" s="18">
-        <v>38000</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>950000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4104,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F139" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G139" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4127,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F140" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G140" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4150,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F141" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4173,13 +4173,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4196,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F143" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G143" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4219,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F144" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4242,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F145" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G145" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4265,13 +4265,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4288,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F147" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4311,19 +4311,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F148" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4334,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F149" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G149" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4357,19 +4357,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F150" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G150" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4380,16 +4380,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F151" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4403,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F152" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G152" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4426,19 +4426,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F153" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G153" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4449,19 +4449,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F154" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G154" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4472,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="F155" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G155" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4495,16 +4495,16 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G156" s="18">
         <v>781242</v>
@@ -4518,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F157" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G157" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4541,19 +4541,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F158" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G158" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4564,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F159" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G159" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4587,16 +4587,16 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F160" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G160" s="18">
         <v>781242</v>
@@ -4610,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F161" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G161" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4633,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F162" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G162" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4656,16 +4656,16 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F163" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G163" s="18">
         <v>781242</v>
@@ -4679,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F164" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G164" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4702,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F165" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G165" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4725,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="F166" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G166" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4748,16 +4748,16 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F167" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G167" s="18">
         <v>781242</v>
@@ -4771,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="F168" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G168" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4794,19 +4794,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F169" s="18">
-        <v>37122</v>
+        <v>28996</v>
       </c>
       <c r="G169" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4817,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="F170" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G170" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4840,16 +4840,16 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G171" s="18">
         <v>781242</v>
@@ -4863,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F172" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G172" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4886,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F173" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G173" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4909,16 +4909,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="F174" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4932,16 +4932,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F175" s="18">
-        <v>37122</v>
+        <v>30935</v>
       </c>
       <c r="G175" s="18">
         <v>928054</v>
@@ -4955,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F176" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G176" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4978,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="F177" s="18">
         <v>37122</v>
@@ -5001,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="F178" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G178" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5024,19 +5024,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="F179" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G179" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5047,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="F180" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G180" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5070,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="F181" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G181" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5093,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F182" s="18">
         <v>37122</v>
@@ -5116,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F183" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G183" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5139,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="F184" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G184" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5162,19 +5162,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="F185" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G185" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5185,13 +5185,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="F186" s="18">
         <v>37122</v>
@@ -5208,19 +5208,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F187" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G187" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5231,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G188" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5254,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="F189" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G189" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5277,13 +5277,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F190" s="18">
         <v>37122</v>
@@ -5300,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F191" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G191" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5323,19 +5323,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F192" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5346,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="F193" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G193" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5369,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F194" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G194" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5392,13 +5392,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="F195" s="18">
         <v>37122</v>
@@ -5415,19 +5415,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G196" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5438,13 +5438,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="F197" s="18">
         <v>37122</v>
@@ -5461,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="F198" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G198" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5484,19 +5484,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F199" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G199" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5507,19 +5507,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F200" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G200" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5530,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F201" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G201" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5553,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F202" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G202" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5576,13 +5576,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F203" s="18">
         <v>37122</v>
@@ -5599,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="F204" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G204" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5622,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G205" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5645,13 +5645,13 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F206" s="18">
         <v>37122</v>
@@ -5668,19 +5668,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="F207" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G207" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5691,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="F208" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G208" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5714,19 +5714,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F209" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G209" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5737,13 +5737,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="F210" s="18">
         <v>37122</v>
@@ -5760,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F211" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G211" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5783,19 +5783,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F212" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5806,13 +5806,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F213" s="18">
         <v>37122</v>
@@ -5829,19 +5829,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F214" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G214" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5852,19 +5852,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5875,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="F216" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G216" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5898,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G217" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5921,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="F218" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G218" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5944,19 +5944,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F219" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G219" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -5967,13 +5967,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F220" s="18">
         <v>37122</v>
@@ -5990,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F221" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G221" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6013,13 +6013,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F222" s="18">
         <v>37122</v>
@@ -6036,19 +6036,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G223" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6059,19 +6059,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="F224" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G224" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6082,19 +6082,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G225" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6105,13 +6105,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F226" s="18">
         <v>37122</v>
@@ -6128,19 +6128,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F227" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G227" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6151,19 +6151,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F228" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G228" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6174,19 +6174,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F229" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G229" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6197,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F230" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G230" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6220,19 +6220,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G231" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6243,13 +6243,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F232" s="18">
         <v>37122</v>
@@ -6266,19 +6266,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G233" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6289,13 +6289,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F234" s="18">
         <v>37122</v>
@@ -6312,19 +6312,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F235" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G235" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6335,19 +6335,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F236" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G236" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6358,19 +6358,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F237" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G237" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6381,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F238" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G238" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6404,19 +6404,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G239" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6427,13 +6427,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F240" s="18">
         <v>37122</v>
@@ -6450,19 +6450,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G241" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6473,19 +6473,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F242" s="18">
-        <v>32000</v>
+        <v>12374</v>
       </c>
       <c r="G242" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6496,16 +6496,16 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F243" s="18">
-        <v>32000</v>
+        <v>26667</v>
       </c>
       <c r="G243" s="18">
         <v>800000</v>
@@ -6519,19 +6519,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="F244" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G244" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6542,13 +6542,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F245" s="18">
         <v>32000</v>
@@ -6565,19 +6565,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F246" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G246" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6588,13 +6588,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D247" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E247" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="F247" s="18">
         <v>32000</v>
@@ -6611,19 +6611,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F248" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G248" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6634,13 +6634,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F249" s="18">
         <v>32000</v>
@@ -6657,13 +6657,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F250" s="18">
         <v>32000</v>
@@ -6680,19 +6680,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="F251" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G251" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6703,19 +6703,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="F252" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G252" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6726,13 +6726,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="F253" s="18">
         <v>32000</v>
@@ -6749,13 +6749,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="F254" s="18">
         <v>32000</v>
@@ -6772,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F255" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G255" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6795,19 +6795,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6818,19 +6818,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F257" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G257" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6841,13 +6841,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F258" s="18">
         <v>32000</v>
@@ -6864,13 +6864,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F259" s="18">
         <v>32000</v>
@@ -6887,19 +6887,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F260" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G260" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6910,13 +6910,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F261" s="18">
         <v>32000</v>
@@ -6933,13 +6933,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="F262" s="18">
         <v>32000</v>
@@ -6956,19 +6956,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F263" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G263" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6979,19 +6979,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F264" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G264" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7002,19 +7002,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F265" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G265" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7025,13 +7025,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="F266" s="18">
         <v>32000</v>
@@ -7048,13 +7048,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="F267" s="18">
         <v>32000</v>
@@ -7071,19 +7071,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G268" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7094,13 +7094,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="F269" s="18">
         <v>32000</v>
@@ -7117,13 +7117,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="F270" s="18">
         <v>32000</v>
@@ -7140,19 +7140,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F271" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G271" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7163,19 +7163,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F272" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G272" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7186,19 +7186,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="F273" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G273" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7209,19 +7209,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="F274" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G274" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7232,13 +7232,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F275" s="18">
         <v>32000</v>
@@ -7255,13 +7255,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F276" s="18">
         <v>32000</v>
@@ -7278,19 +7278,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="F277" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G277" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7301,19 +7301,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="F278" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G278" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7324,13 +7324,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F279" s="18">
         <v>32000</v>
@@ -7347,13 +7347,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="F280" s="18">
         <v>32000</v>
@@ -7370,13 +7370,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="F281" s="18">
         <v>32000</v>
@@ -7393,19 +7393,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="F282" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G282" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7416,19 +7416,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F283" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G283" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7439,13 +7439,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="F284" s="18">
         <v>32000</v>
@@ -7462,19 +7462,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="F285" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G285" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7485,13 +7485,13 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="F286" s="18">
         <v>32000</v>
@@ -7508,13 +7508,13 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F287" s="18">
         <v>32000</v>
@@ -7531,19 +7531,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F288" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G288" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7554,19 +7554,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="F289" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G289" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7577,13 +7577,13 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="F290" s="18">
         <v>32000</v>
@@ -7600,13 +7600,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F291" s="18">
         <v>32000</v>
@@ -7623,19 +7623,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="F292" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G292" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7646,19 +7646,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="F293" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G293" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7669,13 +7669,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="F294" s="18">
         <v>32000</v>
@@ -7692,19 +7692,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="F295" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G295" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7715,13 +7715,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F296" s="18">
         <v>32000</v>
@@ -7738,13 +7738,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F297" s="18">
         <v>32000</v>
@@ -7761,19 +7761,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="F298" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G298" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7784,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="F299" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G299" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7807,13 +7807,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F300" s="18">
         <v>32000</v>
@@ -7830,13 +7830,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F301" s="18">
         <v>32000</v>
@@ -7853,13 +7853,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F302" s="18">
         <v>32000</v>
@@ -7876,19 +7876,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F303" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G303" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7899,19 +7899,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="F304" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G304" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7922,19 +7922,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F305" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G305" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -7945,13 +7945,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F306" s="18">
         <v>32000</v>
@@ -7968,13 +7968,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F307" s="18">
         <v>32000</v>
@@ -7991,19 +7991,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F308" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G308" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8014,13 +8014,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F309" s="18">
         <v>32000</v>
@@ -8037,13 +8037,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="F310" s="18">
         <v>32000</v>
@@ -8060,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F311" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G311" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8083,19 +8083,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F312" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G312" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8106,19 +8106,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F313" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G313" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8129,13 +8129,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F314" s="18">
         <v>32000</v>
@@ -8152,13 +8152,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F315" s="18">
         <v>32000</v>
@@ -8175,19 +8175,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F316" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G316" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8198,19 +8198,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F317" s="18">
-        <v>26041</v>
+        <v>32000</v>
       </c>
       <c r="G317" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8221,19 +8221,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F318" s="18">
-        <v>30935</v>
+        <v>38000</v>
       </c>
       <c r="G318" s="18">
-        <v>928054</v>
+        <v>950000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8244,19 +8244,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F319" s="18">
-        <v>26667</v>
+        <v>24591</v>
       </c>
       <c r="G319" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8267,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="D320" s="23" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F320" s="24">
-        <v>26667</v>
+        <v>29509</v>
       </c>
       <c r="G320" s="24">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H320" s="25"/>
       <c r="I320" s="25"/>

--- a/Data/EC/NIT-8909244316.xlsx
+++ b/Data/EC/NIT-8909244316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06AB34DB-2B48-4CD5-8D15-773BA3BCF6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DB0D3A-2B6D-4B7E-A7BD-67F00FB82398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C78D6AA0-CB6E-42DC-B185-100ACA69F47B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0593DF48-C8A2-448C-BEFC-99233E598198}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,57 @@
     <t>CC</t>
   </si>
   <si>
+    <t>45500061</t>
+  </si>
+  <si>
+    <t>ERLINDA VALETA MORALES</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1050948604</t>
+  </si>
+  <si>
+    <t>YURANIS ESTEFANIA ORTIZ FLOREZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>45442523</t>
+  </si>
+  <si>
+    <t>LIGIA DEL SOCORRO GARRIDO RANGEL</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
     <t>92548311</t>
   </si>
   <si>
@@ -74,274 +125,223 @@
     <t>1706</t>
   </si>
   <si>
-    <t>45500061</t>
-  </si>
-  <si>
-    <t>ERLINDA VALETA MORALES</t>
+    <t>1128056362</t>
+  </si>
+  <si>
+    <t>MILTON JOSE ZAMBRANO VALDELAMAR</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1100306978</t>
+  </si>
+  <si>
+    <t>YENISFERR MEZA BELTRAN</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1143366341</t>
+  </si>
+  <si>
+    <t>YURANIS RODRIGUEZ BELLO</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
   <si>
     <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1050948604</t>
-  </si>
-  <si>
-    <t>YURANIS ESTEFANIA ORTIZ FLOREZ</t>
-  </si>
-  <si>
-    <t>1128056362</t>
-  </si>
-  <si>
-    <t>MILTON JOSE ZAMBRANO VALDELAMAR</t>
-  </si>
-  <si>
-    <t>45442523</t>
-  </si>
-  <si>
-    <t>LIGIA DEL SOCORRO GARRIDO RANGEL</t>
-  </si>
-  <si>
-    <t>1143366341</t>
-  </si>
-  <si>
-    <t>YURANIS RODRIGUEZ BELLO</t>
-  </si>
-  <si>
-    <t>1100306978</t>
-  </si>
-  <si>
-    <t>YENISFERR MEZA BELTRAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -440,7 +440,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -453,9 +455,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -655,23 +655,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,10 +699,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +755,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1DD760A-8BBE-7C87-0A69-90E8C94286C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA75DC0-D451-5424-FB2F-468695892487}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5783C8B-5660-40B2-9CE7-C46631F0C585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA8D58B-30EC-4CB2-9521-CB3EDB717978}">
   <dimension ref="B2:J326"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1284,10 +1284,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>4596</v>
+        <v>32000</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>800000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1304,13 +1304,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>26667</v>
+        <v>28996</v>
       </c>
       <c r="G17" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1321,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>32000</v>
@@ -1350,13 +1350,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G19" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1367,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>32000</v>
@@ -1396,13 +1396,13 @@
         <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G21" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1413,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>32000</v>
@@ -1442,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G23" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1459,13 +1459,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F24" s="18">
         <v>32000</v>
@@ -1482,13 +1482,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>32000</v>
@@ -1511,13 +1511,13 @@
         <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G26" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1528,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>32000</v>
@@ -1551,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>32000</v>
@@ -1580,13 +1580,13 @@
         <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G29" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1597,13 +1597,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>32000</v>
@@ -1620,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>32000</v>
@@ -1649,13 +1649,13 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F32" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G32" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1666,13 +1666,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F33" s="18">
         <v>32000</v>
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F34" s="18">
         <v>32000</v>
@@ -1718,13 +1718,13 @@
         <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F35" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G35" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1735,13 +1735,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
         <v>32000</v>
@@ -1758,13 +1758,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18">
         <v>32000</v>
@@ -1787,13 +1787,13 @@
         <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G38" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1804,13 +1804,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F39" s="18">
         <v>32000</v>
@@ -1833,13 +1833,13 @@
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F40" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G40" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1850,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>32000</v>
@@ -1873,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
         <v>32000</v>
@@ -1902,13 +1902,13 @@
         <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F43" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G43" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1919,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
         <v>32000</v>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
-        <v>32000</v>
+        <v>4596</v>
       </c>
       <c r="G45" s="18">
-        <v>800000</v>
+        <v>689455</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1965,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>32000</v>
@@ -1994,13 +1994,13 @@
         <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G47" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
-        <v>32000</v>
+        <v>12374</v>
       </c>
       <c r="G48" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2034,13 +2034,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18">
         <v>32000</v>
@@ -2057,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F50" s="18">
         <v>32000</v>
@@ -2086,13 +2086,13 @@
         <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F51" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G51" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G52" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2126,13 +2126,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F53" s="18">
         <v>32000</v>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F54" s="18">
-        <v>32000</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2172,13 +2172,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
         <v>32000</v>
@@ -2201,13 +2201,13 @@
         <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G56" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2218,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G57" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2241,13 +2241,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>32000</v>
@@ -2264,13 +2264,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F59" s="18">
         <v>32000</v>
@@ -2293,13 +2293,13 @@
         <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="F60" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G60" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2310,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="F61" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G61" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2333,13 +2333,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="F62" s="18">
         <v>32000</v>
@@ -2356,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F63" s="18">
         <v>32000</v>
@@ -2385,13 +2385,13 @@
         <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F64" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G64" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F65" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G65" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2425,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
         <v>32000</v>
@@ -2448,13 +2448,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
         <v>32000</v>
@@ -2477,13 +2477,13 @@
         <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G68" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2494,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F69" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G69" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2517,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
         <v>32000</v>
@@ -2540,13 +2540,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
         <v>32000</v>
@@ -2569,13 +2569,13 @@
         <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G72" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G73" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>32000</v>
@@ -2632,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
-        <v>32000</v>
+        <v>24591</v>
       </c>
       <c r="G75" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2655,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="F76" s="18">
         <v>32000</v>
@@ -2684,13 +2684,13 @@
         <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F77" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G77" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G78" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2724,13 +2724,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
         <v>32000</v>
@@ -2747,13 +2747,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F80" s="18">
         <v>32000</v>
@@ -2776,13 +2776,13 @@
         <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F81" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G81" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="F82" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G82" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2816,13 +2816,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F83" s="18">
         <v>32000</v>
@@ -2839,13 +2839,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F84" s="18">
         <v>32000</v>
@@ -2868,13 +2868,13 @@
         <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F85" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G85" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="F86" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G86" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2908,13 +2908,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="F87" s="18">
         <v>32000</v>
@@ -2931,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F88" s="18">
         <v>32000</v>
@@ -2960,13 +2960,13 @@
         <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G89" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2977,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F90" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G90" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3000,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F91" s="18">
         <v>32000</v>
@@ -3023,13 +3023,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
         <v>32000</v>
@@ -3052,13 +3052,13 @@
         <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="F93" s="18">
-        <v>32000</v>
+        <v>28996</v>
       </c>
       <c r="G93" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3069,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F94" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G94" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3092,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="F95" s="18">
         <v>32000</v>
@@ -3115,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F96" s="18">
-        <v>26041</v>
+        <v>32000</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3138,16 +3138,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3161,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G100" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3230,16 +3230,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3253,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3322,16 +3322,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>28996</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3345,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G106" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3391,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3414,13 +3414,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F109" s="18">
         <v>31249</v>
@@ -3437,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G110" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3460,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3483,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3506,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F113" s="18">
         <v>31249</v>
@@ -3529,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3552,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G115" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3575,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3598,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F117" s="18">
         <v>31249</v>
@@ -3621,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G118" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3644,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3667,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3690,13 +3690,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F121" s="18">
         <v>31249</v>
@@ -3713,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G122" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3736,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3759,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3782,13 +3782,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F125" s="18">
         <v>31249</v>
@@ -3805,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3828,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3851,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3874,13 +3874,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F129" s="18">
         <v>31249</v>
@@ -3897,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G130" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3920,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3943,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3966,13 +3966,13 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F133" s="18">
         <v>31249</v>
@@ -3989,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4012,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E135" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4035,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G136" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4058,13 +4058,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F137" s="18">
         <v>31249</v>
@@ -4081,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4104,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F139" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G139" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4127,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F140" s="18">
-        <v>31249</v>
+        <v>38000</v>
       </c>
       <c r="G140" s="18">
-        <v>781242</v>
+        <v>950000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -4150,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4173,13 +4173,13 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F142" s="18">
         <v>31249</v>
@@ -4196,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F143" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G143" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
@@ -4219,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F144" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G144" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4242,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F145" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G145" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4265,13 +4265,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F146" s="18">
         <v>31249</v>
@@ -4288,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F147" s="18">
-        <v>31249</v>
+        <v>37122</v>
       </c>
       <c r="G147" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4311,19 +4311,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>32000</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4334,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F149" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G149" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -4357,16 +4357,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F150" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
         <v>781242</v>
@@ -4380,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F151" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G151" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4403,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F152" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G152" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4426,19 +4426,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F153" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4449,16 +4449,16 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F154" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G154" s="18">
         <v>781242</v>
@@ -4472,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F155" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G155" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4495,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F156" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4518,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F157" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G157" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4541,16 +4541,16 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F158" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
         <v>781242</v>
@@ -4564,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F159" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G159" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4587,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F160" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G160" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4610,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F161" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G161" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4633,16 +4633,16 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F162" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
         <v>781242</v>
@@ -4656,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F163" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G163" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4679,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F164" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G164" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4702,19 +4702,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="F165" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G165" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4725,16 +4725,16 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="F166" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
         <v>781242</v>
@@ -4748,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F167" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G167" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4771,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F168" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G168" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4794,19 +4794,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F169" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G169" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4817,16 +4817,16 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="F170" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
         <v>781242</v>
@@ -4840,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="F171" s="18">
-        <v>28996</v>
+        <v>37122</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4863,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F172" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G172" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4886,19 +4886,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F173" s="18">
-        <v>28996</v>
+        <v>32000</v>
       </c>
       <c r="G173" s="18">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4909,16 +4909,16 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F174" s="18">
-        <v>28996</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
         <v>781242</v>
@@ -4932,16 +4932,16 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F175" s="18">
-        <v>30935</v>
+        <v>37122</v>
       </c>
       <c r="G175" s="18">
         <v>928054</v>
@@ -4955,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="F176" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G176" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -4978,19 +4978,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F177" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G177" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5001,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F178" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G178" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5024,13 +5024,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="F179" s="18">
         <v>37122</v>
@@ -5047,19 +5047,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="F180" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G180" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5070,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F181" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G181" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5093,19 +5093,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F182" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5116,13 +5116,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F183" s="18">
         <v>37122</v>
@@ -5139,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F184" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G184" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5162,19 +5162,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F185" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G185" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5185,19 +5185,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F186" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G186" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5208,13 +5208,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F187" s="18">
         <v>37122</v>
@@ -5231,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F188" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G188" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5254,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F189" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G189" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5277,19 +5277,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F190" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5300,13 +5300,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F191" s="18">
         <v>37122</v>
@@ -5323,19 +5323,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F192" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G192" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5346,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F193" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G193" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5369,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F194" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5392,13 +5392,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F195" s="18">
         <v>37122</v>
@@ -5415,19 +5415,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F196" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G196" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5438,19 +5438,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F197" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G197" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5461,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F198" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5484,13 +5484,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="F199" s="18">
         <v>37122</v>
@@ -5507,19 +5507,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F200" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G200" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5530,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="F201" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G201" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5553,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="F202" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5576,13 +5576,13 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F203" s="18">
         <v>37122</v>
@@ -5599,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F204" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G204" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5622,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F205" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G205" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5645,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F206" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5668,13 +5668,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="F207" s="18">
         <v>37122</v>
@@ -5691,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="F208" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G208" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5714,19 +5714,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F209" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G209" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5737,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F210" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5760,13 +5760,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="F211" s="18">
         <v>37122</v>
@@ -5783,19 +5783,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F212" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G212" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5806,19 +5806,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F213" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G213" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5829,19 +5829,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F214" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5852,13 +5852,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F215" s="18">
         <v>37122</v>
@@ -5875,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F216" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G216" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5898,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F217" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G217" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5921,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F218" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -5944,13 +5944,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F219" s="18">
         <v>37122</v>
@@ -5967,19 +5967,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F220" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G220" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -5990,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="F221" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G221" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6013,19 +6013,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F222" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6036,13 +6036,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F223" s="18">
         <v>37122</v>
@@ -6059,19 +6059,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F224" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G224" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6082,19 +6082,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F225" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G225" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6105,19 +6105,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F226" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6128,13 +6128,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F227" s="18">
         <v>37122</v>
@@ -6151,19 +6151,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F228" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G228" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6174,19 +6174,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F229" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G229" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6197,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F230" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6220,13 +6220,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F231" s="18">
         <v>37122</v>
@@ -6243,19 +6243,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F232" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G232" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6266,19 +6266,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F233" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G233" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6289,19 +6289,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F234" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6312,13 +6312,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F235" s="18">
         <v>37122</v>
@@ -6335,19 +6335,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F236" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G236" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6358,19 +6358,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F237" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G237" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6381,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F238" s="18">
-        <v>37122</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6404,13 +6404,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F239" s="18">
         <v>37122</v>
@@ -6427,19 +6427,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F240" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G240" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6450,19 +6450,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F241" s="18">
-        <v>37122</v>
+        <v>32000</v>
       </c>
       <c r="G241" s="18">
-        <v>928054</v>
+        <v>800000</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6473,19 +6473,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="F242" s="18">
-        <v>12374</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>928054</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6496,19 +6496,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F243" s="18">
-        <v>26667</v>
+        <v>37122</v>
       </c>
       <c r="G243" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6519,13 +6519,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F244" s="18">
         <v>32000</v>
@@ -6542,13 +6542,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F245" s="18">
         <v>32000</v>
@@ -6565,19 +6565,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F246" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6588,19 +6588,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="F247" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G247" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6611,13 +6611,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F248" s="18">
         <v>32000</v>
@@ -6634,13 +6634,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F249" s="18">
         <v>32000</v>
@@ -6657,19 +6657,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F250" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6680,19 +6680,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="F251" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G251" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6703,13 +6703,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F252" s="18">
         <v>32000</v>
@@ -6726,13 +6726,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F253" s="18">
         <v>32000</v>
@@ -6749,19 +6749,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="F254" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G254" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6772,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="F255" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G255" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6795,13 +6795,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="F256" s="18">
         <v>32000</v>
@@ -6818,13 +6818,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="F257" s="18">
         <v>32000</v>
@@ -6841,19 +6841,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F258" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6864,19 +6864,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F259" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G259" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6887,13 +6887,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F260" s="18">
         <v>32000</v>
@@ -6910,13 +6910,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="F261" s="18">
         <v>32000</v>
@@ -6933,19 +6933,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F262" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G262" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -6956,19 +6956,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="F263" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G263" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -6979,13 +6979,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F264" s="18">
         <v>32000</v>
@@ -7002,13 +7002,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F265" s="18">
         <v>32000</v>
@@ -7025,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F266" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7048,19 +7048,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F267" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G267" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7071,13 +7071,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F268" s="18">
         <v>32000</v>
@@ -7094,13 +7094,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F269" s="18">
         <v>32000</v>
@@ -7117,19 +7117,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F270" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G270" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7140,19 +7140,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="F271" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G271" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7163,13 +7163,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="F272" s="18">
         <v>32000</v>
@@ -7186,13 +7186,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F273" s="18">
         <v>32000</v>
@@ -7209,19 +7209,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F274" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7232,19 +7232,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="F275" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G275" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7255,13 +7255,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="F276" s="18">
         <v>32000</v>
@@ -7278,13 +7278,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F277" s="18">
         <v>32000</v>
@@ -7301,19 +7301,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F278" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7324,19 +7324,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F279" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G279" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7347,13 +7347,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F280" s="18">
         <v>32000</v>
@@ -7370,13 +7370,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="F281" s="18">
         <v>32000</v>
@@ -7393,19 +7393,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F282" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G282" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7416,19 +7416,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F283" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G283" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7439,13 +7439,13 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="F284" s="18">
         <v>32000</v>
@@ -7462,13 +7462,13 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F285" s="18">
         <v>32000</v>
@@ -7485,19 +7485,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="F286" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7508,19 +7508,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="F287" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G287" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7531,13 +7531,13 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F288" s="18">
         <v>32000</v>
@@ -7554,13 +7554,13 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F289" s="18">
         <v>32000</v>
@@ -7577,19 +7577,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="F290" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G290" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7600,19 +7600,19 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="F291" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G291" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H291" s="19"/>
       <c r="I291" s="19"/>
@@ -7623,13 +7623,13 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F292" s="18">
         <v>32000</v>
@@ -7646,13 +7646,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F293" s="18">
         <v>32000</v>
@@ -7669,19 +7669,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F294" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G294" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7692,19 +7692,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="F295" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G295" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7715,13 +7715,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F296" s="18">
         <v>32000</v>
@@ -7738,13 +7738,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E297" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="D297" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E297" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="F297" s="18">
         <v>32000</v>
@@ -7761,19 +7761,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D298" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D298" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E298" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F298" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G298" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7784,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D299" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E299" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="D299" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E299" s="16" t="s">
-        <v>70</v>
-      </c>
       <c r="F299" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G299" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7807,13 +7807,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E300" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E300" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="F300" s="18">
         <v>32000</v>
@@ -7830,13 +7830,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D301" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="E301" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="F301" s="18">
         <v>32000</v>
@@ -7853,19 +7853,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D302" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E302" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="F302" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G302" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7876,19 +7876,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D303" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E303" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="E303" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="F303" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G303" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7899,13 +7899,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D304" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E304" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="F304" s="18">
         <v>32000</v>
@@ -7922,13 +7922,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F305" s="18">
         <v>32000</v>
@@ -7945,19 +7945,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F306" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -7968,19 +7968,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F307" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G307" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -7991,13 +7991,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F308" s="18">
         <v>32000</v>
@@ -8014,13 +8014,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F309" s="18">
         <v>32000</v>
@@ -8037,19 +8037,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F310" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G310" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8060,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F311" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G311" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8083,13 +8083,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F312" s="18">
         <v>32000</v>
@@ -8106,13 +8106,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F313" s="18">
         <v>32000</v>
@@ -8129,19 +8129,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F314" s="18">
-        <v>32000</v>
+        <v>31249</v>
       </c>
       <c r="G314" s="18">
-        <v>800000</v>
+        <v>781242</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8152,19 +8152,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F315" s="18">
-        <v>32000</v>
+        <v>37122</v>
       </c>
       <c r="G315" s="18">
-        <v>800000</v>
+        <v>928054</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8175,13 +8175,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F316" s="18">
         <v>32000</v>
@@ -8198,16 +8198,16 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F317" s="18">
-        <v>32000</v>
+        <v>26667</v>
       </c>
       <c r="G317" s="18">
         <v>800000</v>
@@ -8221,19 +8221,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="F318" s="18">
-        <v>38000</v>
+        <v>26041</v>
       </c>
       <c r="G318" s="18">
-        <v>950000</v>
+        <v>781242</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8244,19 +8244,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D319" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E319" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="E319" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F319" s="18">
-        <v>24591</v>
+        <v>30935</v>
       </c>
       <c r="G319" s="18">
-        <v>781242</v>
+        <v>928054</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8267,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D320" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E320" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E320" s="22" t="s">
-        <v>80</v>
-      </c>
       <c r="F320" s="24">
-        <v>29509</v>
+        <v>26667</v>
       </c>
       <c r="G320" s="24">
-        <v>781242</v>
+        <v>800000</v>
       </c>
       <c r="H320" s="25"/>
       <c r="I320" s="25"/>

--- a/Data/EC/NIT-8909244316.xlsx
+++ b/Data/EC/NIT-8909244316.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40DB0D3A-2B6D-4B7E-A7BD-67F00FB82398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{169D663E-4C44-4C6A-A67A-730865B459DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0593DF48-C8A2-448C-BEFC-99233E598198}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{58BABF07-9C64-4370-9F3D-986E6FAAD9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -440,9 +440,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -455,7 +453,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -649,29 +649,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,19 +690,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +761,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA75DC0-D451-5424-FB2F-468695892487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A89C13A-1A8C-C98F-9549-F7D22B704385}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1106,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA8D58B-30EC-4CB2-9521-CB3EDB717978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E1F437-3F1D-41BB-A3FC-1DCD89C05AAB}">
   <dimension ref="B2:J326"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1129,49 +1135,49 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1179,7 +1185,7 @@
         <v>103</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8909244316</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>104</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>9912276</v>
       </c>
@@ -1280,18 +1286,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G16" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="F16" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1303,18 +1309,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>28996</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>781242</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1326,18 +1332,18 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G18" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1349,18 +1355,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>28996</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>781242</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1372,18 +1378,18 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G20" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1395,18 +1401,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>28996</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>781242</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1418,18 +1424,18 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G22" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1441,18 +1447,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>28996</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>781242</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1464,18 +1470,18 @@
       <c r="D24" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G24" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G24" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1487,18 +1493,18 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1510,18 +1516,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>28996</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>781242</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1533,18 +1539,18 @@
       <c r="D27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1556,18 +1562,18 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1579,18 +1585,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>28996</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>781242</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1602,18 +1608,18 @@
       <c r="D30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="F30" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1625,18 +1631,18 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1648,18 +1654,18 @@
       <c r="D32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>28996</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>781242</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1671,18 +1677,18 @@
       <c r="D33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1694,18 +1700,18 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F34" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="F34" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1717,18 +1723,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>28996</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>781242</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1740,18 +1746,18 @@
       <c r="D36" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1763,18 +1769,18 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1786,18 +1792,18 @@
       <c r="D38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>28996</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>781242</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1809,18 +1815,18 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1832,18 +1838,18 @@
       <c r="D40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>28996</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>781242</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1855,18 +1861,18 @@
       <c r="D41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1878,18 +1884,18 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="F42" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1901,18 +1907,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>28996</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>781242</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -1924,18 +1930,18 @@
       <c r="D44" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F44" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="F44" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -1947,18 +1953,18 @@
       <c r="D45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="19">
         <v>4596</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G45" s="19">
         <v>689455</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -1970,18 +1976,18 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="F46" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -1993,18 +1999,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="19">
         <v>28996</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G47" s="19">
         <v>781242</v>
       </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2016,18 +2022,18 @@
       <c r="D48" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>12374</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>928054</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2039,18 +2045,18 @@
       <c r="D49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2062,18 +2068,18 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="F50" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G50" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2085,18 +2091,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F51" s="19">
         <v>28996</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G51" s="19">
         <v>781242</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2108,18 +2114,18 @@
       <c r="D52" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>37122</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>928054</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2131,18 +2137,18 @@
       <c r="D53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G53" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G53" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2154,18 +2160,18 @@
       <c r="D54" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>29509</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>781242</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2177,18 +2183,18 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G55" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G55" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2200,18 +2206,18 @@
       <c r="D56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>28996</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>781242</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2223,18 +2229,18 @@
       <c r="D57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F57" s="19">
         <v>37122</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G57" s="19">
         <v>928054</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2246,18 +2252,18 @@
       <c r="D58" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G58" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="F58" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G58" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2269,18 +2275,18 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G59" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2292,18 +2298,18 @@
       <c r="D60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>28996</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>781242</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2315,18 +2321,18 @@
       <c r="D61" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="19">
         <v>37122</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="19">
         <v>928054</v>
       </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2338,18 +2344,18 @@
       <c r="D62" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F62" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G62" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="F62" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G62" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2361,18 +2367,18 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G63" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G63" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2384,18 +2390,18 @@
       <c r="D64" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>28996</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>781242</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2407,18 +2413,18 @@
       <c r="D65" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="19">
         <v>37122</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="19">
         <v>928054</v>
       </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2430,18 +2436,18 @@
       <c r="D66" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F66" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G66" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="F66" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G66" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2453,18 +2459,18 @@
       <c r="D67" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F67" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G67" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G67" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2476,18 +2482,18 @@
       <c r="D68" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>28996</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>781242</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2499,18 +2505,18 @@
       <c r="D69" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="19">
         <v>37122</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="19">
         <v>928054</v>
       </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2522,18 +2528,18 @@
       <c r="D70" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G70" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="F70" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G70" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2545,18 +2551,18 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F71" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G71" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G71" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2568,18 +2574,18 @@
       <c r="D72" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>28996</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>781242</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2591,18 +2597,18 @@
       <c r="D73" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="19">
         <v>37122</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="19">
         <v>928054</v>
       </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2614,18 +2620,18 @@
       <c r="D74" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F74" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G74" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="F74" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G74" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2637,18 +2643,18 @@
       <c r="D75" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="19">
         <v>24591</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="19">
         <v>781242</v>
       </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2660,18 +2666,18 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F76" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G76" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="F76" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G76" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2683,18 +2689,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>28996</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>781242</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2706,18 +2712,18 @@
       <c r="D78" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>37122</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>928054</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2729,18 +2735,18 @@
       <c r="D79" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F79" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G79" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G79" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2752,18 +2758,18 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F80" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G80" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="F80" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G80" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2775,18 +2781,18 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>28996</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>781242</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2798,18 +2804,18 @@
       <c r="D82" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>37122</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>928054</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2821,18 +2827,18 @@
       <c r="D83" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F83" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G83" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G83" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2844,18 +2850,18 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G84" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="F84" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G84" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2867,18 +2873,18 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F85" s="18">
+      <c r="F85" s="19">
         <v>28996</v>
       </c>
-      <c r="G85" s="18">
+      <c r="G85" s="19">
         <v>781242</v>
       </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2890,18 +2896,18 @@
       <c r="D86" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>37122</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>928054</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2913,18 +2919,18 @@
       <c r="D87" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F87" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G87" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -2936,18 +2942,18 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="F88" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G88" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -2959,18 +2965,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F89" s="18">
+      <c r="F89" s="19">
         <v>28996</v>
       </c>
-      <c r="G89" s="18">
+      <c r="G89" s="19">
         <v>781242</v>
       </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -2982,18 +2988,18 @@
       <c r="D90" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>37122</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>928054</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3005,18 +3011,18 @@
       <c r="D91" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F91" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G91" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3028,18 +3034,18 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G92" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="F92" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G92" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3051,18 +3057,18 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F93" s="18">
+      <c r="F93" s="19">
         <v>28996</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="19">
         <v>781242</v>
       </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3074,18 +3080,18 @@
       <c r="D94" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>37122</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>928054</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3097,18 +3103,18 @@
       <c r="D95" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G95" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G95" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3120,18 +3126,18 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F96" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G96" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="F96" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G96" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3143,18 +3149,18 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>28996</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>781242</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3166,18 +3172,18 @@
       <c r="D98" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>37122</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>928054</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3189,18 +3195,18 @@
       <c r="D99" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F99" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G99" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="F99" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G99" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3212,18 +3218,18 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F100" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G100" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G100" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3235,18 +3241,18 @@
       <c r="D101" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>28996</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>781242</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3258,18 +3264,18 @@
       <c r="D102" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="19">
         <v>37122</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="19">
         <v>928054</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3281,18 +3287,18 @@
       <c r="D103" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F103" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G103" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G103" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3304,18 +3310,18 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F104" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G104" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="F104" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G104" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3327,18 +3333,18 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F105" s="18">
+      <c r="F105" s="19">
         <v>28996</v>
       </c>
-      <c r="G105" s="18">
+      <c r="G105" s="19">
         <v>781242</v>
       </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3350,18 +3356,18 @@
       <c r="D106" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="19">
         <v>37122</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="19">
         <v>928054</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3373,18 +3379,18 @@
       <c r="D107" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F107" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G107" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G107" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3396,18 +3402,18 @@
       <c r="D108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F108" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G108" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="F108" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G108" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3419,18 +3425,18 @@
       <c r="D109" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>31249</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>781242</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3442,18 +3448,18 @@
       <c r="D110" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="19">
         <v>37122</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="19">
         <v>928054</v>
       </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3465,18 +3471,18 @@
       <c r="D111" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G111" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="F111" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G111" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3488,18 +3494,18 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F112" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G112" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="F112" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G112" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3511,18 +3517,18 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="19">
         <v>31249</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="19">
         <v>781242</v>
       </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3534,18 +3540,18 @@
       <c r="D114" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="19">
         <v>37122</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="19">
         <v>928054</v>
       </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3557,18 +3563,18 @@
       <c r="D115" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F115" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G115" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="F115" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G115" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3580,18 +3586,18 @@
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F116" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G116" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G116" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3603,18 +3609,18 @@
       <c r="D117" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="19">
         <v>31249</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="19">
         <v>781242</v>
       </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3626,18 +3632,18 @@
       <c r="D118" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>37122</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="19">
         <v>928054</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3649,18 +3655,18 @@
       <c r="D119" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F119" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G119" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G119" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3672,18 +3678,18 @@
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F120" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G120" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="F120" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G120" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3695,18 +3701,18 @@
       <c r="D121" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="19">
         <v>31249</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="19">
         <v>781242</v>
       </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3718,18 +3724,18 @@
       <c r="D122" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="19">
         <v>37122</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="19">
         <v>928054</v>
       </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3741,18 +3747,18 @@
       <c r="D123" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F123" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G123" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="F123" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G123" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3764,18 +3770,18 @@
       <c r="D124" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F124" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G124" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="F124" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G124" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3787,18 +3793,18 @@
       <c r="D125" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="19">
         <v>31249</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="19">
         <v>781242</v>
       </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3810,18 +3816,18 @@
       <c r="D126" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F126" s="18">
+      <c r="F126" s="19">
         <v>37122</v>
       </c>
-      <c r="G126" s="18">
+      <c r="G126" s="19">
         <v>928054</v>
       </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3833,18 +3839,18 @@
       <c r="D127" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F127" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G127" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="F127" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G127" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3856,18 +3862,18 @@
       <c r="D128" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F128" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G128" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="F128" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G128" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3879,18 +3885,18 @@
       <c r="D129" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F129" s="18">
+      <c r="F129" s="19">
         <v>31249</v>
       </c>
-      <c r="G129" s="18">
+      <c r="G129" s="19">
         <v>781242</v>
       </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3902,18 +3908,18 @@
       <c r="D130" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="19">
         <v>37122</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G130" s="19">
         <v>928054</v>
       </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -3925,18 +3931,18 @@
       <c r="D131" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F131" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G131" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="F131" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G131" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -3948,18 +3954,18 @@
       <c r="D132" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F132" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G132" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G132" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -3971,18 +3977,18 @@
       <c r="D133" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F133" s="18">
+      <c r="F133" s="19">
         <v>31249</v>
       </c>
-      <c r="G133" s="18">
+      <c r="G133" s="19">
         <v>781242</v>
       </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -3994,18 +4000,18 @@
       <c r="D134" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F134" s="19">
         <v>37122</v>
       </c>
-      <c r="G134" s="18">
+      <c r="G134" s="19">
         <v>928054</v>
       </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4017,18 +4023,18 @@
       <c r="D135" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F135" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G135" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4040,18 +4046,18 @@
       <c r="D136" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F136" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="F136" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G136" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4063,18 +4069,18 @@
       <c r="D137" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="19">
         <v>31249</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="19">
         <v>781242</v>
       </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4086,18 +4092,18 @@
       <c r="D138" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F138" s="18">
+      <c r="F138" s="19">
         <v>37122</v>
       </c>
-      <c r="G138" s="18">
+      <c r="G138" s="19">
         <v>928054</v>
       </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4109,18 +4115,18 @@
       <c r="D139" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F139" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G139" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="F139" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G139" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4132,18 +4138,18 @@
       <c r="D140" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="19">
         <v>38000</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="19">
         <v>950000</v>
       </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4155,18 +4161,18 @@
       <c r="D141" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F141" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G141" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4178,18 +4184,18 @@
       <c r="D142" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="19">
         <v>31249</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="19">
         <v>781242</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4201,18 +4207,18 @@
       <c r="D143" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="19">
         <v>37122</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="19">
         <v>928054</v>
       </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4224,18 +4230,18 @@
       <c r="D144" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F144" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G144" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4247,18 +4253,18 @@
       <c r="D145" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F145" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="F145" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G145" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4270,18 +4276,18 @@
       <c r="D146" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="19">
         <v>31249</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G146" s="19">
         <v>781242</v>
       </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4293,18 +4299,18 @@
       <c r="D147" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="19">
         <v>37122</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G147" s="19">
         <v>928054</v>
       </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4316,18 +4322,18 @@
       <c r="D148" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F148" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G148" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="F148" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G148" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4339,18 +4345,18 @@
       <c r="D149" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F149" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G149" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="F149" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G149" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4362,18 +4368,18 @@
       <c r="D150" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="19">
         <v>31249</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G150" s="19">
         <v>781242</v>
       </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4385,18 +4391,18 @@
       <c r="D151" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="19">
         <v>37122</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="19">
         <v>928054</v>
       </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4408,18 +4414,18 @@
       <c r="D152" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F152" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G152" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="F152" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G152" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4431,18 +4437,18 @@
       <c r="D153" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F153" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G153" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4454,18 +4460,18 @@
       <c r="D154" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="19">
         <v>31249</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="19">
         <v>781242</v>
       </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4477,18 +4483,18 @@
       <c r="D155" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="19">
         <v>37122</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="19">
         <v>928054</v>
       </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4500,18 +4506,18 @@
       <c r="D156" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F156" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G156" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G156" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4523,18 +4529,18 @@
       <c r="D157" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F157" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G157" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="F157" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G157" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4546,18 +4552,18 @@
       <c r="D158" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="19">
         <v>31249</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="19">
         <v>781242</v>
       </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4569,18 +4575,18 @@
       <c r="D159" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="19">
         <v>37122</v>
       </c>
-      <c r="G159" s="18">
+      <c r="G159" s="19">
         <v>928054</v>
       </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4592,18 +4598,18 @@
       <c r="D160" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F160" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G160" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G160" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4615,18 +4621,18 @@
       <c r="D161" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F161" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G161" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="F161" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G161" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4638,18 +4644,18 @@
       <c r="D162" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="19">
         <v>31249</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="19">
         <v>781242</v>
       </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4661,18 +4667,18 @@
       <c r="D163" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="19">
         <v>37122</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="19">
         <v>928054</v>
       </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4684,18 +4690,18 @@
       <c r="D164" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F164" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G164" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="F164" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G164" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4707,18 +4713,18 @@
       <c r="D165" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F165" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G165" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G165" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4730,18 +4736,18 @@
       <c r="D166" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="19">
         <v>31249</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="19">
         <v>781242</v>
       </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4753,18 +4759,18 @@
       <c r="D167" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="19">
         <v>37122</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="19">
         <v>928054</v>
       </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4776,18 +4782,18 @@
       <c r="D168" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F168" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G168" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="F168" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G168" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4799,18 +4805,18 @@
       <c r="D169" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F169" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G169" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="F169" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G169" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4822,18 +4828,18 @@
       <c r="D170" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F170" s="18">
+      <c r="F170" s="19">
         <v>31249</v>
       </c>
-      <c r="G170" s="18">
+      <c r="G170" s="19">
         <v>781242</v>
       </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4845,18 +4851,18 @@
       <c r="D171" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F171" s="18">
+      <c r="F171" s="19">
         <v>37122</v>
       </c>
-      <c r="G171" s="18">
+      <c r="G171" s="19">
         <v>928054</v>
       </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4868,18 +4874,18 @@
       <c r="D172" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F172" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G172" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="F172" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G172" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4891,18 +4897,18 @@
       <c r="D173" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F173" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G173" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="F173" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G173" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4914,18 +4920,18 @@
       <c r="D174" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F174" s="18">
+      <c r="F174" s="19">
         <v>31249</v>
       </c>
-      <c r="G174" s="18">
+      <c r="G174" s="19">
         <v>781242</v>
       </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -4937,18 +4943,18 @@
       <c r="D175" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F175" s="18">
+      <c r="F175" s="19">
         <v>37122</v>
       </c>
-      <c r="G175" s="18">
+      <c r="G175" s="19">
         <v>928054</v>
       </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -4960,18 +4966,18 @@
       <c r="D176" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F176" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G176" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="F176" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G176" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -4983,18 +4989,18 @@
       <c r="D177" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F177" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G177" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="F177" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G177" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -5006,18 +5012,18 @@
       <c r="D178" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F178" s="18">
+      <c r="F178" s="19">
         <v>31249</v>
       </c>
-      <c r="G178" s="18">
+      <c r="G178" s="19">
         <v>781242</v>
       </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5029,18 +5035,18 @@
       <c r="D179" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F179" s="18">
+      <c r="F179" s="19">
         <v>37122</v>
       </c>
-      <c r="G179" s="18">
+      <c r="G179" s="19">
         <v>928054</v>
       </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5052,18 +5058,18 @@
       <c r="D180" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F180" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G180" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="F180" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G180" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5075,18 +5081,18 @@
       <c r="D181" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F181" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G181" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="F181" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G181" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5098,18 +5104,18 @@
       <c r="D182" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F182" s="18">
+      <c r="F182" s="19">
         <v>31249</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="19">
         <v>781242</v>
       </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5121,18 +5127,18 @@
       <c r="D183" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F183" s="18">
+      <c r="F183" s="19">
         <v>37122</v>
       </c>
-      <c r="G183" s="18">
+      <c r="G183" s="19">
         <v>928054</v>
       </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5144,18 +5150,18 @@
       <c r="D184" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F184" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G184" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="F184" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G184" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5167,18 +5173,18 @@
       <c r="D185" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F185" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G185" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="F185" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G185" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5190,18 +5196,18 @@
       <c r="D186" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F186" s="18">
+      <c r="F186" s="19">
         <v>31249</v>
       </c>
-      <c r="G186" s="18">
+      <c r="G186" s="19">
         <v>781242</v>
       </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5213,18 +5219,18 @@
       <c r="D187" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F187" s="18">
+      <c r="F187" s="19">
         <v>37122</v>
       </c>
-      <c r="G187" s="18">
+      <c r="G187" s="19">
         <v>928054</v>
       </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5236,18 +5242,18 @@
       <c r="D188" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F188" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G188" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="F188" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G188" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5259,18 +5265,18 @@
       <c r="D189" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F189" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G189" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="F189" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G189" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5282,18 +5288,18 @@
       <c r="D190" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F190" s="18">
+      <c r="F190" s="19">
         <v>31249</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="19">
         <v>781242</v>
       </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5305,18 +5311,18 @@
       <c r="D191" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F191" s="18">
+      <c r="F191" s="19">
         <v>37122</v>
       </c>
-      <c r="G191" s="18">
+      <c r="G191" s="19">
         <v>928054</v>
       </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5328,18 +5334,18 @@
       <c r="D192" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F192" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G192" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="F192" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G192" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5351,18 +5357,18 @@
       <c r="D193" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F193" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G193" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="F193" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G193" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5374,18 +5380,18 @@
       <c r="D194" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F194" s="18">
+      <c r="F194" s="19">
         <v>31249</v>
       </c>
-      <c r="G194" s="18">
+      <c r="G194" s="19">
         <v>781242</v>
       </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5397,18 +5403,18 @@
       <c r="D195" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F195" s="18">
+      <c r="F195" s="19">
         <v>37122</v>
       </c>
-      <c r="G195" s="18">
+      <c r="G195" s="19">
         <v>928054</v>
       </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5420,18 +5426,18 @@
       <c r="D196" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F196" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G196" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="F196" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G196" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5443,18 +5449,18 @@
       <c r="D197" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F197" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G197" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="F197" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G197" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5466,18 +5472,18 @@
       <c r="D198" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F198" s="18">
+      <c r="F198" s="19">
         <v>31249</v>
       </c>
-      <c r="G198" s="18">
+      <c r="G198" s="19">
         <v>781242</v>
       </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5489,18 +5495,18 @@
       <c r="D199" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F199" s="18">
+      <c r="F199" s="19">
         <v>37122</v>
       </c>
-      <c r="G199" s="18">
+      <c r="G199" s="19">
         <v>928054</v>
       </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5512,18 +5518,18 @@
       <c r="D200" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F200" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G200" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="F200" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G200" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5535,18 +5541,18 @@
       <c r="D201" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F201" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G201" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="F201" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G201" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5558,18 +5564,18 @@
       <c r="D202" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F202" s="18">
+      <c r="F202" s="19">
         <v>31249</v>
       </c>
-      <c r="G202" s="18">
+      <c r="G202" s="19">
         <v>781242</v>
       </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5581,18 +5587,18 @@
       <c r="D203" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F203" s="18">
+      <c r="F203" s="19">
         <v>37122</v>
       </c>
-      <c r="G203" s="18">
+      <c r="G203" s="19">
         <v>928054</v>
       </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5604,18 +5610,18 @@
       <c r="D204" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F204" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G204" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="F204" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G204" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5627,18 +5633,18 @@
       <c r="D205" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F205" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G205" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="F205" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G205" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5650,18 +5656,18 @@
       <c r="D206" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F206" s="18">
+      <c r="F206" s="19">
         <v>31249</v>
       </c>
-      <c r="G206" s="18">
+      <c r="G206" s="19">
         <v>781242</v>
       </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5673,18 +5679,18 @@
       <c r="D207" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F207" s="18">
+      <c r="F207" s="19">
         <v>37122</v>
       </c>
-      <c r="G207" s="18">
+      <c r="G207" s="19">
         <v>928054</v>
       </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5696,18 +5702,18 @@
       <c r="D208" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F208" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G208" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="F208" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G208" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5719,18 +5725,18 @@
       <c r="D209" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F209" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G209" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="F209" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G209" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -5742,18 +5748,18 @@
       <c r="D210" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F210" s="18">
+      <c r="F210" s="19">
         <v>31249</v>
       </c>
-      <c r="G210" s="18">
+      <c r="G210" s="19">
         <v>781242</v>
       </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -5765,18 +5771,18 @@
       <c r="D211" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F211" s="18">
+      <c r="F211" s="19">
         <v>37122</v>
       </c>
-      <c r="G211" s="18">
+      <c r="G211" s="19">
         <v>928054</v>
       </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -5788,18 +5794,18 @@
       <c r="D212" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F212" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G212" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="F212" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G212" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -5811,18 +5817,18 @@
       <c r="D213" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F213" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G213" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="F213" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G213" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -5834,18 +5840,18 @@
       <c r="D214" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F214" s="18">
+      <c r="F214" s="19">
         <v>31249</v>
       </c>
-      <c r="G214" s="18">
+      <c r="G214" s="19">
         <v>781242</v>
       </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -5857,18 +5863,18 @@
       <c r="D215" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F215" s="18">
+      <c r="F215" s="19">
         <v>37122</v>
       </c>
-      <c r="G215" s="18">
+      <c r="G215" s="19">
         <v>928054</v>
       </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -5880,18 +5886,18 @@
       <c r="D216" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F216" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G216" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="F216" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G216" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -5903,18 +5909,18 @@
       <c r="D217" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F217" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G217" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="F217" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G217" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
@@ -5926,18 +5932,18 @@
       <c r="D218" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F218" s="18">
+      <c r="F218" s="19">
         <v>31249</v>
       </c>
-      <c r="G218" s="18">
+      <c r="G218" s="19">
         <v>781242</v>
       </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
@@ -5949,18 +5955,18 @@
       <c r="D219" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F219" s="18">
+      <c r="F219" s="19">
         <v>37122</v>
       </c>
-      <c r="G219" s="18">
+      <c r="G219" s="19">
         <v>928054</v>
       </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
@@ -5972,18 +5978,18 @@
       <c r="D220" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F220" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G220" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
+      <c r="F220" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G220" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
@@ -5995,18 +6001,18 @@
       <c r="D221" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F221" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G221" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="F221" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G221" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
@@ -6018,18 +6024,18 @@
       <c r="D222" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F222" s="18">
+      <c r="F222" s="19">
         <v>31249</v>
       </c>
-      <c r="G222" s="18">
+      <c r="G222" s="19">
         <v>781242</v>
       </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
@@ -6041,18 +6047,18 @@
       <c r="D223" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F223" s="18">
+      <c r="F223" s="19">
         <v>37122</v>
       </c>
-      <c r="G223" s="18">
+      <c r="G223" s="19">
         <v>928054</v>
       </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
@@ -6064,18 +6070,18 @@
       <c r="D224" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F224" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G224" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
+      <c r="F224" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G224" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
@@ -6087,18 +6093,18 @@
       <c r="D225" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F225" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G225" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="F225" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G225" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
@@ -6110,18 +6116,18 @@
       <c r="D226" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F226" s="18">
+      <c r="F226" s="19">
         <v>31249</v>
       </c>
-      <c r="G226" s="18">
+      <c r="G226" s="19">
         <v>781242</v>
       </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
@@ -6133,18 +6139,18 @@
       <c r="D227" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F227" s="18">
+      <c r="F227" s="19">
         <v>37122</v>
       </c>
-      <c r="G227" s="18">
+      <c r="G227" s="19">
         <v>928054</v>
       </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
@@ -6156,18 +6162,18 @@
       <c r="D228" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F228" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G228" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="F228" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G228" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
@@ -6179,18 +6185,18 @@
       <c r="D229" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F229" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G229" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="F229" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G229" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
@@ -6202,18 +6208,18 @@
       <c r="D230" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F230" s="18">
+      <c r="F230" s="19">
         <v>31249</v>
       </c>
-      <c r="G230" s="18">
+      <c r="G230" s="19">
         <v>781242</v>
       </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
@@ -6225,18 +6231,18 @@
       <c r="D231" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F231" s="18">
+      <c r="F231" s="19">
         <v>37122</v>
       </c>
-      <c r="G231" s="18">
+      <c r="G231" s="19">
         <v>928054</v>
       </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
@@ -6248,18 +6254,18 @@
       <c r="D232" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F232" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G232" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="F232" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G232" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
@@ -6271,18 +6277,18 @@
       <c r="D233" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F233" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G233" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
+      <c r="F233" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G233" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
@@ -6294,18 +6300,18 @@
       <c r="D234" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F234" s="18">
+      <c r="F234" s="19">
         <v>31249</v>
       </c>
-      <c r="G234" s="18">
+      <c r="G234" s="19">
         <v>781242</v>
       </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
@@ -6317,18 +6323,18 @@
       <c r="D235" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F235" s="18">
+      <c r="F235" s="19">
         <v>37122</v>
       </c>
-      <c r="G235" s="18">
+      <c r="G235" s="19">
         <v>928054</v>
       </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
@@ -6340,18 +6346,18 @@
       <c r="D236" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F236" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G236" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
+      <c r="F236" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G236" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="21"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
@@ -6363,18 +6369,18 @@
       <c r="D237" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F237" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G237" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
+      <c r="F237" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G237" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="21"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
@@ -6386,18 +6392,18 @@
       <c r="D238" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F238" s="18">
+      <c r="F238" s="19">
         <v>31249</v>
       </c>
-      <c r="G238" s="18">
+      <c r="G238" s="19">
         <v>781242</v>
       </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="21"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
@@ -6409,18 +6415,18 @@
       <c r="D239" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F239" s="18">
+      <c r="F239" s="19">
         <v>37122</v>
       </c>
-      <c r="G239" s="18">
+      <c r="G239" s="19">
         <v>928054</v>
       </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="21"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
@@ -6432,18 +6438,18 @@
       <c r="D240" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F240" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G240" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="F240" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G240" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="21"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
@@ -6455,18 +6461,18 @@
       <c r="D241" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F241" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G241" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
+      <c r="F241" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G241" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="21"/>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
@@ -6478,18 +6484,18 @@
       <c r="D242" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F242" s="18">
+      <c r="F242" s="19">
         <v>31249</v>
       </c>
-      <c r="G242" s="18">
+      <c r="G242" s="19">
         <v>781242</v>
       </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="21"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
@@ -6501,18 +6507,18 @@
       <c r="D243" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F243" s="18">
+      <c r="F243" s="19">
         <v>37122</v>
       </c>
-      <c r="G243" s="18">
+      <c r="G243" s="19">
         <v>928054</v>
       </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="21"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
@@ -6524,18 +6530,18 @@
       <c r="D244" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F244" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G244" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
+      <c r="F244" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G244" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="21"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
@@ -6547,18 +6553,18 @@
       <c r="D245" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F245" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G245" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="F245" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G245" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="21"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
@@ -6570,18 +6576,18 @@
       <c r="D246" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F246" s="18">
+      <c r="F246" s="19">
         <v>31249</v>
       </c>
-      <c r="G246" s="18">
+      <c r="G246" s="19">
         <v>781242</v>
       </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="21"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
@@ -6593,18 +6599,18 @@
       <c r="D247" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F247" s="18">
+      <c r="F247" s="19">
         <v>37122</v>
       </c>
-      <c r="G247" s="18">
+      <c r="G247" s="19">
         <v>928054</v>
       </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="21"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
@@ -6616,18 +6622,18 @@
       <c r="D248" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F248" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G248" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
+      <c r="F248" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G248" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="21"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
@@ -6639,18 +6645,18 @@
       <c r="D249" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F249" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G249" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="F249" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G249" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="21"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
@@ -6662,18 +6668,18 @@
       <c r="D250" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F250" s="18">
+      <c r="F250" s="19">
         <v>31249</v>
       </c>
-      <c r="G250" s="18">
+      <c r="G250" s="19">
         <v>781242</v>
       </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="21"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
@@ -6685,18 +6691,18 @@
       <c r="D251" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F251" s="18">
+      <c r="F251" s="19">
         <v>37122</v>
       </c>
-      <c r="G251" s="18">
+      <c r="G251" s="19">
         <v>928054</v>
       </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="21"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
@@ -6708,18 +6714,18 @@
       <c r="D252" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F252" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G252" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="F252" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G252" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="21"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
@@ -6731,18 +6737,18 @@
       <c r="D253" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F253" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G253" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="F253" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G253" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="21"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
@@ -6754,18 +6760,18 @@
       <c r="D254" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F254" s="18">
+      <c r="F254" s="19">
         <v>31249</v>
       </c>
-      <c r="G254" s="18">
+      <c r="G254" s="19">
         <v>781242</v>
       </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="21"/>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" s="15" t="s">
@@ -6777,18 +6783,18 @@
       <c r="D255" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E255" s="16" t="s">
+      <c r="E255" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F255" s="18">
+      <c r="F255" s="19">
         <v>37122</v>
       </c>
-      <c r="G255" s="18">
+      <c r="G255" s="19">
         <v>928054</v>
       </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="21"/>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" s="15" t="s">
@@ -6800,18 +6806,18 @@
       <c r="D256" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E256" s="16" t="s">
+      <c r="E256" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F256" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G256" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
+      <c r="F256" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G256" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="21"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="15" t="s">
@@ -6823,18 +6829,18 @@
       <c r="D257" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E257" s="16" t="s">
+      <c r="E257" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F257" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G257" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
+      <c r="F257" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G257" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="21"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" s="15" t="s">
@@ -6846,18 +6852,18 @@
       <c r="D258" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E258" s="16" t="s">
+      <c r="E258" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F258" s="18">
+      <c r="F258" s="19">
         <v>31249</v>
       </c>
-      <c r="G258" s="18">
+      <c r="G258" s="19">
         <v>781242</v>
       </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="21"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B259" s="15" t="s">
@@ -6869,18 +6875,18 @@
       <c r="D259" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E259" s="16" t="s">
+      <c r="E259" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F259" s="18">
+      <c r="F259" s="19">
         <v>37122</v>
       </c>
-      <c r="G259" s="18">
+      <c r="G259" s="19">
         <v>928054</v>
       </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="21"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" s="15" t="s">
@@ -6892,18 +6898,18 @@
       <c r="D260" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E260" s="16" t="s">
+      <c r="E260" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F260" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G260" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
+      <c r="F260" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G260" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="21"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" s="15" t="s">
@@ -6915,18 +6921,18 @@
       <c r="D261" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E261" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F261" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G261" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
+      <c r="F261" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G261" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="21"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" s="15" t="s">
@@ -6938,18 +6944,18 @@
       <c r="D262" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F262" s="18">
+      <c r="F262" s="19">
         <v>31249</v>
       </c>
-      <c r="G262" s="18">
+      <c r="G262" s="19">
         <v>781242</v>
       </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="21"/>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" s="15" t="s">
@@ -6961,18 +6967,18 @@
       <c r="D263" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F263" s="18">
+      <c r="F263" s="19">
         <v>37122</v>
       </c>
-      <c r="G263" s="18">
+      <c r="G263" s="19">
         <v>928054</v>
       </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="21"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" s="15" t="s">
@@ -6984,18 +6990,18 @@
       <c r="D264" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F264" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G264" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
+      <c r="F264" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G264" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="21"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
@@ -7007,18 +7013,18 @@
       <c r="D265" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F265" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G265" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
+      <c r="F265" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G265" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="21"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" s="15" t="s">
@@ -7030,18 +7036,18 @@
       <c r="D266" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F266" s="18">
+      <c r="F266" s="19">
         <v>31249</v>
       </c>
-      <c r="G266" s="18">
+      <c r="G266" s="19">
         <v>781242</v>
       </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="21"/>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" s="15" t="s">
@@ -7053,18 +7059,18 @@
       <c r="D267" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F267" s="18">
+      <c r="F267" s="19">
         <v>37122</v>
       </c>
-      <c r="G267" s="18">
+      <c r="G267" s="19">
         <v>928054</v>
       </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="21"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" s="15" t="s">
@@ -7076,18 +7082,18 @@
       <c r="D268" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F268" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G268" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
+      <c r="F268" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G268" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="21"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" s="15" t="s">
@@ -7099,18 +7105,18 @@
       <c r="D269" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F269" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G269" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
+      <c r="F269" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G269" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="21"/>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" s="15" t="s">
@@ -7122,18 +7128,18 @@
       <c r="D270" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F270" s="18">
+      <c r="F270" s="19">
         <v>31249</v>
       </c>
-      <c r="G270" s="18">
+      <c r="G270" s="19">
         <v>781242</v>
       </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="21"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="15" t="s">
@@ -7145,18 +7151,18 @@
       <c r="D271" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F271" s="18">
+      <c r="F271" s="19">
         <v>37122</v>
       </c>
-      <c r="G271" s="18">
+      <c r="G271" s="19">
         <v>928054</v>
       </c>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="21"/>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" s="15" t="s">
@@ -7168,18 +7174,18 @@
       <c r="D272" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F272" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G272" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="20"/>
+      <c r="F272" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G272" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="21"/>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B273" s="15" t="s">
@@ -7191,18 +7197,18 @@
       <c r="D273" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F273" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G273" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
+      <c r="F273" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G273" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="21"/>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B274" s="15" t="s">
@@ -7214,18 +7220,18 @@
       <c r="D274" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F274" s="18">
+      <c r="F274" s="19">
         <v>31249</v>
       </c>
-      <c r="G274" s="18">
+      <c r="G274" s="19">
         <v>781242</v>
       </c>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="21"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B275" s="15" t="s">
@@ -7237,18 +7243,18 @@
       <c r="D275" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="E275" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F275" s="18">
+      <c r="F275" s="19">
         <v>37122</v>
       </c>
-      <c r="G275" s="18">
+      <c r="G275" s="19">
         <v>928054</v>
       </c>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="21"/>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B276" s="15" t="s">
@@ -7260,18 +7266,18 @@
       <c r="D276" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F276" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G276" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
+      <c r="F276" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G276" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="21"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B277" s="15" t="s">
@@ -7283,18 +7289,18 @@
       <c r="D277" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E277" s="16" t="s">
+      <c r="E277" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F277" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G277" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="20"/>
+      <c r="F277" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G277" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="21"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B278" s="15" t="s">
@@ -7306,18 +7312,18 @@
       <c r="D278" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E278" s="16" t="s">
+      <c r="E278" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F278" s="18">
+      <c r="F278" s="19">
         <v>31249</v>
       </c>
-      <c r="G278" s="18">
+      <c r="G278" s="19">
         <v>781242</v>
       </c>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="21"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B279" s="15" t="s">
@@ -7329,18 +7335,18 @@
       <c r="D279" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E279" s="16" t="s">
+      <c r="E279" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F279" s="18">
+      <c r="F279" s="19">
         <v>37122</v>
       </c>
-      <c r="G279" s="18">
+      <c r="G279" s="19">
         <v>928054</v>
       </c>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="21"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B280" s="15" t="s">
@@ -7352,18 +7358,18 @@
       <c r="D280" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E280" s="16" t="s">
+      <c r="E280" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F280" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G280" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="20"/>
+      <c r="F280" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G280" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="21"/>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B281" s="15" t="s">
@@ -7375,18 +7381,18 @@
       <c r="D281" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E281" s="16" t="s">
+      <c r="E281" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F281" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G281" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="20"/>
+      <c r="F281" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G281" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="21"/>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B282" s="15" t="s">
@@ -7398,18 +7404,18 @@
       <c r="D282" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E282" s="16" t="s">
+      <c r="E282" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F282" s="18">
+      <c r="F282" s="19">
         <v>31249</v>
       </c>
-      <c r="G282" s="18">
+      <c r="G282" s="19">
         <v>781242</v>
       </c>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="20"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="21"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B283" s="15" t="s">
@@ -7421,18 +7427,18 @@
       <c r="D283" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E283" s="16" t="s">
+      <c r="E283" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F283" s="18">
+      <c r="F283" s="19">
         <v>37122</v>
       </c>
-      <c r="G283" s="18">
+      <c r="G283" s="19">
         <v>928054</v>
       </c>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="21"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B284" s="15" t="s">
@@ -7444,18 +7450,18 @@
       <c r="D284" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E284" s="16" t="s">
+      <c r="E284" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F284" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G284" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="20"/>
+      <c r="F284" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G284" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="21"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B285" s="15" t="s">
@@ -7467,18 +7473,18 @@
       <c r="D285" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E285" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F285" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G285" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="20"/>
+      <c r="F285" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G285" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="21"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B286" s="15" t="s">
@@ -7490,18 +7496,18 @@
       <c r="D286" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E286" s="16" t="s">
+      <c r="E286" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F286" s="18">
+      <c r="F286" s="19">
         <v>31249</v>
       </c>
-      <c r="G286" s="18">
+      <c r="G286" s="19">
         <v>781242</v>
       </c>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="21"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B287" s="15" t="s">
@@ -7513,18 +7519,18 @@
       <c r="D287" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E287" s="16" t="s">
+      <c r="E287" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F287" s="18">
+      <c r="F287" s="19">
         <v>37122</v>
       </c>
-      <c r="G287" s="18">
+      <c r="G287" s="19">
         <v>928054</v>
       </c>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="21"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B288" s="15" t="s">
@@ -7536,18 +7542,18 @@
       <c r="D288" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E288" s="16" t="s">
+      <c r="E288" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F288" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G288" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="20"/>
+      <c r="F288" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G288" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="21"/>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" s="15" t="s">
@@ -7559,18 +7565,18 @@
       <c r="D289" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E289" s="16" t="s">
+      <c r="E289" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F289" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G289" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="20"/>
+      <c r="F289" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G289" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="21"/>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B290" s="15" t="s">
@@ -7582,18 +7588,18 @@
       <c r="D290" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E290" s="16" t="s">
+      <c r="E290" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F290" s="18">
+      <c r="F290" s="19">
         <v>31249</v>
       </c>
-      <c r="G290" s="18">
+      <c r="G290" s="19">
         <v>781242</v>
       </c>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="21"/>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B291" s="15" t="s">
@@ -7605,18 +7611,18 @@
       <c r="D291" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F291" s="18">
+      <c r="F291" s="19">
         <v>37122</v>
       </c>
-      <c r="G291" s="18">
+      <c r="G291" s="19">
         <v>928054</v>
       </c>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="21"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B292" s="15" t="s">
@@ -7628,18 +7634,18 @@
       <c r="D292" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F292" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G292" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="20"/>
+      <c r="F292" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G292" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H292" s="20"/>
+      <c r="I292" s="20"/>
+      <c r="J292" s="21"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="15" t="s">
@@ -7651,18 +7657,18 @@
       <c r="D293" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F293" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G293" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="F293" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G293" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="21"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B294" s="15" t="s">
@@ -7674,18 +7680,18 @@
       <c r="D294" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F294" s="18">
+      <c r="F294" s="19">
         <v>31249</v>
       </c>
-      <c r="G294" s="18">
+      <c r="G294" s="19">
         <v>781242</v>
       </c>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="21"/>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B295" s="15" t="s">
@@ -7697,18 +7703,18 @@
       <c r="D295" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F295" s="18">
+      <c r="F295" s="19">
         <v>37122</v>
       </c>
-      <c r="G295" s="18">
+      <c r="G295" s="19">
         <v>928054</v>
       </c>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="20"/>
+      <c r="J295" s="21"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B296" s="15" t="s">
@@ -7720,18 +7726,18 @@
       <c r="D296" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E296" s="16" t="s">
+      <c r="E296" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F296" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G296" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="20"/>
+      <c r="F296" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G296" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H296" s="20"/>
+      <c r="I296" s="20"/>
+      <c r="J296" s="21"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B297" s="15" t="s">
@@ -7743,18 +7749,18 @@
       <c r="D297" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E297" s="16" t="s">
+      <c r="E297" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F297" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G297" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
+      <c r="F297" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G297" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H297" s="20"/>
+      <c r="I297" s="20"/>
+      <c r="J297" s="21"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B298" s="15" t="s">
@@ -7766,18 +7772,18 @@
       <c r="D298" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F298" s="18">
+      <c r="F298" s="19">
         <v>31249</v>
       </c>
-      <c r="G298" s="18">
+      <c r="G298" s="19">
         <v>781242</v>
       </c>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="20"/>
+      <c r="H298" s="20"/>
+      <c r="I298" s="20"/>
+      <c r="J298" s="21"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B299" s="15" t="s">
@@ -7789,18 +7795,18 @@
       <c r="D299" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E299" s="16" t="s">
+      <c r="E299" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F299" s="18">
+      <c r="F299" s="19">
         <v>37122</v>
       </c>
-      <c r="G299" s="18">
+      <c r="G299" s="19">
         <v>928054</v>
       </c>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="20"/>
+      <c r="H299" s="20"/>
+      <c r="I299" s="20"/>
+      <c r="J299" s="21"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B300" s="15" t="s">
@@ -7812,18 +7818,18 @@
       <c r="D300" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E300" s="16" t="s">
+      <c r="E300" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F300" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G300" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="F300" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G300" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H300" s="20"/>
+      <c r="I300" s="20"/>
+      <c r="J300" s="21"/>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B301" s="15" t="s">
@@ -7835,18 +7841,18 @@
       <c r="D301" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E301" s="16" t="s">
+      <c r="E301" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F301" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G301" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
+      <c r="F301" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G301" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H301" s="20"/>
+      <c r="I301" s="20"/>
+      <c r="J301" s="21"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B302" s="15" t="s">
@@ -7858,18 +7864,18 @@
       <c r="D302" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E302" s="16" t="s">
+      <c r="E302" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F302" s="18">
+      <c r="F302" s="19">
         <v>31249</v>
       </c>
-      <c r="G302" s="18">
+      <c r="G302" s="19">
         <v>781242</v>
       </c>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="20"/>
+      <c r="H302" s="20"/>
+      <c r="I302" s="20"/>
+      <c r="J302" s="21"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B303" s="15" t="s">
@@ -7881,18 +7887,18 @@
       <c r="D303" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="16" t="s">
+      <c r="E303" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F303" s="18">
+      <c r="F303" s="19">
         <v>37122</v>
       </c>
-      <c r="G303" s="18">
+      <c r="G303" s="19">
         <v>928054</v>
       </c>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
+      <c r="H303" s="20"/>
+      <c r="I303" s="20"/>
+      <c r="J303" s="21"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B304" s="15" t="s">
@@ -7904,18 +7910,18 @@
       <c r="D304" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F304" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G304" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
+      <c r="F304" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G304" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
+      <c r="J304" s="21"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B305" s="15" t="s">
@@ -7927,18 +7933,18 @@
       <c r="D305" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E305" s="16" t="s">
+      <c r="E305" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F305" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G305" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
+      <c r="F305" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G305" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H305" s="20"/>
+      <c r="I305" s="20"/>
+      <c r="J305" s="21"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B306" s="15" t="s">
@@ -7950,18 +7956,18 @@
       <c r="D306" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F306" s="18">
+      <c r="F306" s="19">
         <v>31249</v>
       </c>
-      <c r="G306" s="18">
+      <c r="G306" s="19">
         <v>781242</v>
       </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
+      <c r="H306" s="20"/>
+      <c r="I306" s="20"/>
+      <c r="J306" s="21"/>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B307" s="15" t="s">
@@ -7973,18 +7979,18 @@
       <c r="D307" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E307" s="16" t="s">
+      <c r="E307" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F307" s="18">
+      <c r="F307" s="19">
         <v>37122</v>
       </c>
-      <c r="G307" s="18">
+      <c r="G307" s="19">
         <v>928054</v>
       </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
+      <c r="H307" s="20"/>
+      <c r="I307" s="20"/>
+      <c r="J307" s="21"/>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B308" s="15" t="s">
@@ -7996,18 +8002,18 @@
       <c r="D308" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E308" s="16" t="s">
+      <c r="E308" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F308" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G308" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
+      <c r="F308" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G308" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H308" s="20"/>
+      <c r="I308" s="20"/>
+      <c r="J308" s="21"/>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B309" s="15" t="s">
@@ -8019,18 +8025,18 @@
       <c r="D309" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E309" s="16" t="s">
+      <c r="E309" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F309" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G309" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
+      <c r="F309" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G309" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="21"/>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B310" s="15" t="s">
@@ -8042,18 +8048,18 @@
       <c r="D310" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E310" s="16" t="s">
+      <c r="E310" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F310" s="18">
+      <c r="F310" s="19">
         <v>31249</v>
       </c>
-      <c r="G310" s="18">
+      <c r="G310" s="19">
         <v>781242</v>
       </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
+      <c r="H310" s="20"/>
+      <c r="I310" s="20"/>
+      <c r="J310" s="21"/>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B311" s="15" t="s">
@@ -8065,18 +8071,18 @@
       <c r="D311" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E311" s="16" t="s">
+      <c r="E311" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F311" s="18">
+      <c r="F311" s="19">
         <v>37122</v>
       </c>
-      <c r="G311" s="18">
+      <c r="G311" s="19">
         <v>928054</v>
       </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="H311" s="20"/>
+      <c r="I311" s="20"/>
+      <c r="J311" s="21"/>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B312" s="15" t="s">
@@ -8088,18 +8094,18 @@
       <c r="D312" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E312" s="16" t="s">
+      <c r="E312" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F312" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G312" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
+      <c r="F312" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G312" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H312" s="20"/>
+      <c r="I312" s="20"/>
+      <c r="J312" s="21"/>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B313" s="15" t="s">
@@ -8111,18 +8117,18 @@
       <c r="D313" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="E313" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F313" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G313" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
+      <c r="F313" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G313" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H313" s="20"/>
+      <c r="I313" s="20"/>
+      <c r="J313" s="21"/>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B314" s="15" t="s">
@@ -8134,18 +8140,18 @@
       <c r="D314" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E314" s="16" t="s">
+      <c r="E314" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F314" s="18">
+      <c r="F314" s="19">
         <v>31249</v>
       </c>
-      <c r="G314" s="18">
+      <c r="G314" s="19">
         <v>781242</v>
       </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
+      <c r="H314" s="20"/>
+      <c r="I314" s="20"/>
+      <c r="J314" s="21"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B315" s="15" t="s">
@@ -8157,18 +8163,18 @@
       <c r="D315" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E315" s="16" t="s">
+      <c r="E315" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F315" s="18">
+      <c r="F315" s="19">
         <v>37122</v>
       </c>
-      <c r="G315" s="18">
+      <c r="G315" s="19">
         <v>928054</v>
       </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
+      <c r="H315" s="20"/>
+      <c r="I315" s="20"/>
+      <c r="J315" s="21"/>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B316" s="15" t="s">
@@ -8180,18 +8186,18 @@
       <c r="D316" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E316" s="16" t="s">
+      <c r="E316" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F316" s="18">
-        <v>32000</v>
-      </c>
-      <c r="G316" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
+      <c r="F316" s="19">
+        <v>32000</v>
+      </c>
+      <c r="G316" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H316" s="20"/>
+      <c r="I316" s="20"/>
+      <c r="J316" s="21"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B317" s="15" t="s">
@@ -8203,18 +8209,18 @@
       <c r="D317" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E317" s="16" t="s">
+      <c r="E317" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F317" s="18">
+      <c r="F317" s="19">
         <v>26667</v>
       </c>
-      <c r="G317" s="18">
-        <v>800000</v>
-      </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
+      <c r="G317" s="19">
+        <v>800000</v>
+      </c>
+      <c r="H317" s="20"/>
+      <c r="I317" s="20"/>
+      <c r="J317" s="21"/>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B318" s="15" t="s">
@@ -8226,18 +8232,18 @@
       <c r="D318" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E318" s="16" t="s">
+      <c r="E318" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F318" s="18">
+      <c r="F318" s="19">
         <v>26041</v>
       </c>
-      <c r="G318" s="18">
+      <c r="G318" s="19">
         <v>781242</v>
       </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
+      <c r="J318" s="21"/>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B319" s="15" t="s">
@@ -8249,47 +8255,47 @@
       <c r="D319" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E319" s="16" t="s">
+      <c r="E319" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F319" s="18">
+      <c r="F319" s="19">
         <v>30935</v>
       </c>
-      <c r="G319" s="18">
+      <c r="G319" s="19">
         <v>928054</v>
       </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="H319" s="20"/>
+      <c r="I319" s="20"/>
+      <c r="J319" s="21"/>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B320" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C320" s="22" t="s">
+      <c r="B320" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="D320" s="23" t="s">
+      <c r="D320" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E320" s="22" t="s">
+      <c r="E320" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F320" s="24">
+      <c r="F320" s="26">
         <v>26667</v>
       </c>
-      <c r="G320" s="24">
-        <v>800000</v>
-      </c>
-      <c r="H320" s="25"/>
-      <c r="I320" s="25"/>
-      <c r="J320" s="26"/>
+      <c r="G320" s="26">
+        <v>800000</v>
+      </c>
+      <c r="H320" s="27"/>
+      <c r="I320" s="27"/>
+      <c r="J320" s="28"/>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B325" s="32" t="s">
+      <c r="B325" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C325" s="32"/>
+      <c r="C325" s="34"/>
       <c r="H325" s="1" t="s">
         <v>111</v>
       </c>
@@ -8297,10 +8303,10 @@
       <c r="J325" s="1"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B326" s="32" t="s">
+      <c r="B326" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C326" s="32"/>
+      <c r="C326" s="34"/>
       <c r="H326" s="1" t="s">
         <v>112</v>
       </c>
